--- a/期末报告/data.xlsx
+++ b/期末报告/data.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C2" t="n">
+        <v>92</v>
+      </c>
+      <c r="D2" t="n">
+        <v>72</v>
+      </c>
+      <c r="E2" t="n">
+        <v>89</v>
+      </c>
+      <c r="F2" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2" t="n">
         <v>87</v>
       </c>
-      <c r="D2" t="n">
-        <v>89</v>
-      </c>
-      <c r="E2" t="n">
-        <v>84</v>
-      </c>
-      <c r="F2" t="n">
-        <v>70</v>
-      </c>
-      <c r="G2" t="n">
-        <v>79</v>
-      </c>
       <c r="H2" t="n">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="I2" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J2" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C3" t="n">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
+        <v>63</v>
+      </c>
+      <c r="F3" t="n">
+        <v>94</v>
+      </c>
+      <c r="G3" t="n">
         <v>61</v>
       </c>
-      <c r="F3" t="n">
-        <v>99</v>
-      </c>
-      <c r="G3" t="n">
-        <v>68</v>
-      </c>
       <c r="H3" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I3" t="n">
         <v>75</v>
       </c>
       <c r="J3" t="n">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
+        <v>92</v>
+      </c>
+      <c r="E4" t="n">
         <v>78</v>
       </c>
-      <c r="E4" t="n">
-        <v>61</v>
-      </c>
       <c r="F4" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G4" t="n">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I4" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J4" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
